--- a/Data/02_Opplæring og kompetanse/Slutta videregående opplæring UDIR.xlsx
+++ b/Data/02_Opplæring og kompetanse/Slutta videregående opplæring UDIR.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Vestfold og Telemark/02_Redigerte data/02_Opplæring og kompetanse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Vestfold/Data/02_Opplæring og kompetanse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D1D646341095ACB7000CBADD9442A5ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5AC488-F701-4443-8976-927B4A663228}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D1D646341095ACB7000CBADD9442A5ADEDD89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31B941A6-6FC4-4FC8-A112-88BA346DD9F8}"/>
   <bookViews>
-    <workbookView xWindow="53760" yWindow="0" windowWidth="23040" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53835" yWindow="30" windowWidth="23040" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -630,13 +641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E105"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
